--- a/REGULAR/CEO/DOGELIO, RONNEL.xlsx
+++ b/REGULAR/CEO/DOGELIO, RONNEL.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="94">
   <si>
     <t>PERIOD</t>
   </si>
@@ -286,6 +286,36 @@
   </si>
   <si>
     <t>12/18,19/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>12/27-29/2023</t>
+  </si>
+  <si>
+    <t>UT(0-0-50)</t>
+  </si>
+  <si>
+    <t>UT(0-0-56)</t>
+  </si>
+  <si>
+    <t>UT(0-0-34)</t>
+  </si>
+  <si>
+    <t>UT(0-0-27)</t>
+  </si>
+  <si>
+    <t>UT(0-1-22)</t>
+  </si>
+  <si>
+    <t>UT(0-0-15)</t>
+  </si>
+  <si>
+    <t>A(2-0-0)</t>
+  </si>
+  <si>
+    <t>6/15,16/2023</t>
   </si>
 </sst>
 </file>
@@ -1154,7 +1184,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1197,7 +1227,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1261,7 +1291,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1321,7 +1351,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1387,7 +1417,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1450,7 +1480,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1548,7 +1578,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1607,7 +1637,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1672,7 +1702,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1715,7 +1745,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1790,7 +1820,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1976,7 +2006,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2042,7 +2072,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2100,7 +2130,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2166,7 +2196,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2222,7 +2252,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2297,7 +2327,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2340,7 +2370,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2406,7 +2436,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2462,7 +2492,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2560,7 +2590,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2623,7 +2653,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2689,7 +2719,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K145" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K155" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3067,12 +3097,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K145"/>
+  <dimension ref="A2:K155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A63" activePane="bottomLeft"/>
       <selection activeCell="G8" sqref="G8"/>
-      <selection pane="bottomLeft" activeCell="S64" sqref="S64"/>
+      <selection pane="bottomLeft" activeCell="K75" sqref="K75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3229,7 +3259,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>35.07</v>
+        <v>27.770000000000003</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3239,7 +3269,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>49.75</v>
+        <v>51</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4666,57 +4696,53 @@
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="40">
-        <v>45108</v>
-      </c>
+      <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C75" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D75" s="39"/>
+        <v>92</v>
+      </c>
+      <c r="C75" s="13"/>
+      <c r="D75" s="39">
+        <v>2</v>
+      </c>
       <c r="E75" s="9"/>
       <c r="F75" s="20"/>
-      <c r="G75" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H75" s="39">
-        <v>3</v>
-      </c>
+      <c r="G75" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H75" s="39"/>
       <c r="I75" s="9"/>
       <c r="J75" s="11"/>
-      <c r="K75" s="20" t="s">
-        <v>66</v>
+      <c r="K75" s="50" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B76" s="20"/>
-      <c r="C76" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D76" s="39"/>
+      <c r="A76" s="40"/>
+      <c r="B76" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C76" s="13"/>
+      <c r="D76" s="39">
+        <v>3.1000000000000014E-2</v>
+      </c>
       <c r="E76" s="9"/>
       <c r="F76" s="20"/>
-      <c r="G76" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G76" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H76" s="39"/>
       <c r="I76" s="9"/>
       <c r="J76" s="11"/>
-      <c r="K76" s="20"/>
+      <c r="K76" s="50"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
-        <v>45170</v>
+        <v>45108</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C77" s="13">
         <v>1.25</v>
@@ -4729,112 +4755,116 @@
         <v>1.25</v>
       </c>
       <c r="H77" s="39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
-      <c r="K77" s="50">
-        <v>45195</v>
+      <c r="K77" s="20" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="40">
-        <v>45200</v>
-      </c>
-      <c r="B78" s="20"/>
-      <c r="C78" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D78" s="39"/>
+      <c r="A78" s="40"/>
+      <c r="B78" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C78" s="13"/>
+      <c r="D78" s="39">
+        <v>1</v>
+      </c>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G78" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
-      <c r="K78" s="20"/>
+      <c r="K78" s="50">
+        <v>45134</v>
+      </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="40">
-        <v>45231</v>
-      </c>
+      <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C79" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D79" s="39"/>
+        <v>90</v>
+      </c>
+      <c r="C79" s="13"/>
+      <c r="D79" s="39">
+        <v>0.17100000000000001</v>
+      </c>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H79" s="39">
-        <v>1</v>
-      </c>
+      <c r="G79" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H79" s="39"/>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
-      <c r="K79" s="50">
-        <v>45233</v>
-      </c>
+      <c r="K79" s="50"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="40"/>
+      <c r="A80" s="40">
+        <v>45139</v>
+      </c>
       <c r="B80" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C80" s="13"/>
-      <c r="D80" s="39"/>
+        <v>78</v>
+      </c>
+      <c r="C80" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D80" s="39">
+        <v>1</v>
+      </c>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H80" s="39">
-        <v>1</v>
-      </c>
+      <c r="G80" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H80" s="39"/>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
       <c r="K80" s="50">
-        <v>45238</v>
+        <v>45142</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
-        <v>45261</v>
+        <v>45170</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="C81" s="13"/>
+        <v>62</v>
+      </c>
+      <c r="C81" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="39"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H81" s="39"/>
+      <c r="G81" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H81" s="39">
+        <v>1</v>
+      </c>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
-      <c r="K81" s="20" t="s">
-        <v>81</v>
+      <c r="K81" s="50">
+        <v>45195</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C82" s="13"/>
       <c r="D82" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
@@ -4845,17 +4875,19 @@
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
-      <c r="K82" s="20" t="s">
-        <v>83</v>
+      <c r="K82" s="50">
+        <v>45173</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B83" s="20"/>
+      <c r="A83" s="40"/>
+      <c r="B83" s="20" t="s">
+        <v>89</v>
+      </c>
       <c r="C83" s="13"/>
-      <c r="D83" s="39"/>
+      <c r="D83" s="39">
+        <v>5.6000000000000015E-2</v>
+      </c>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
       <c r="G83" s="13" t="str">
@@ -4865,20 +4897,26 @@
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
-      <c r="K83" s="20"/>
+      <c r="K83" s="50"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B84" s="20"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="39"/>
+        <v>45200</v>
+      </c>
+      <c r="B84" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C84" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D84" s="39">
+        <v>7.1000000000000008E-2</v>
+      </c>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
@@ -4887,27 +4925,35 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B85" s="20"/>
-      <c r="C85" s="13"/>
+        <v>45231</v>
+      </c>
+      <c r="B85" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C85" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D85" s="39"/>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H85" s="39"/>
+      <c r="G85" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H85" s="39">
+        <v>1</v>
+      </c>
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
-      <c r="K85" s="20"/>
+      <c r="K85" s="50">
+        <v>45233</v>
+      </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="40">
-        <v>45383</v>
-      </c>
-      <c r="B86" s="20"/>
+      <c r="A86" s="40"/>
+      <c r="B86" s="20" t="s">
+        <v>62</v>
+      </c>
       <c r="C86" s="13"/>
       <c r="D86" s="39"/>
       <c r="E86" s="9"/>
@@ -4916,18 +4962,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H86" s="39"/>
+      <c r="H86" s="39">
+        <v>1</v>
+      </c>
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
-      <c r="K86" s="20"/>
+      <c r="K86" s="50">
+        <v>45238</v>
+      </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="40">
-        <v>45413</v>
-      </c>
-      <c r="B87" s="20"/>
+      <c r="A87" s="40"/>
+      <c r="B87" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="C87" s="13"/>
-      <c r="D87" s="39"/>
+      <c r="D87" s="39">
+        <v>0.11700000000000001</v>
+      </c>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
       <c r="G87" s="13" t="str">
@@ -4937,33 +4989,41 @@
       <c r="H87" s="39"/>
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
-      <c r="K87" s="20"/>
+      <c r="K87" s="50"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
-        <v>45444</v>
-      </c>
-      <c r="B88" s="20"/>
-      <c r="C88" s="13"/>
+        <v>45261</v>
+      </c>
+      <c r="B88" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C88" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D88" s="39"/>
       <c r="E88" s="9"/>
       <c r="F88" s="20"/>
-      <c r="G88" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G88" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H88" s="39"/>
       <c r="I88" s="9"/>
       <c r="J88" s="11"/>
-      <c r="K88" s="20"/>
+      <c r="K88" s="20" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="40">
-        <v>45474</v>
-      </c>
-      <c r="B89" s="20"/>
+      <c r="A89" s="40"/>
+      <c r="B89" s="20" t="s">
+        <v>82</v>
+      </c>
       <c r="C89" s="13"/>
-      <c r="D89" s="39"/>
+      <c r="D89" s="39">
+        <v>2</v>
+      </c>
       <c r="E89" s="9"/>
       <c r="F89" s="20"/>
       <c r="G89" s="13" t="str">
@@ -4973,15 +5033,19 @@
       <c r="H89" s="39"/>
       <c r="I89" s="9"/>
       <c r="J89" s="11"/>
-      <c r="K89" s="20"/>
+      <c r="K89" s="20" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="40">
-        <v>45505</v>
-      </c>
-      <c r="B90" s="20"/>
+      <c r="A90" s="40"/>
+      <c r="B90" s="20" t="s">
+        <v>67</v>
+      </c>
       <c r="C90" s="13"/>
-      <c r="D90" s="39"/>
+      <c r="D90" s="39">
+        <v>3</v>
+      </c>
       <c r="E90" s="9"/>
       <c r="F90" s="20"/>
       <c r="G90" s="13" t="str">
@@ -4991,15 +5055,19 @@
       <c r="H90" s="39"/>
       <c r="I90" s="9"/>
       <c r="J90" s="11"/>
-      <c r="K90" s="20"/>
+      <c r="K90" s="20" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="40">
-        <v>45536</v>
-      </c>
-      <c r="B91" s="20"/>
+      <c r="A91" s="40"/>
+      <c r="B91" s="20" t="s">
+        <v>86</v>
+      </c>
       <c r="C91" s="13"/>
-      <c r="D91" s="39"/>
+      <c r="D91" s="39">
+        <v>0.10400000000000001</v>
+      </c>
       <c r="E91" s="9"/>
       <c r="F91" s="20"/>
       <c r="G91" s="13" t="str">
@@ -5012,8 +5080,8 @@
       <c r="K91" s="20"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="40">
-        <v>45566</v>
+      <c r="A92" s="48" t="s">
+        <v>84</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -5030,7 +5098,9 @@
       <c r="K92" s="20"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="40"/>
+      <c r="A93" s="40">
+        <v>45292</v>
+      </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
       <c r="D93" s="39"/>
@@ -5046,7 +5116,9 @@
       <c r="K93" s="20"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="40"/>
+      <c r="A94" s="40">
+        <v>45323</v>
+      </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
       <c r="D94" s="39"/>
@@ -5062,7 +5134,9 @@
       <c r="K94" s="20"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="40"/>
+      <c r="A95" s="40">
+        <v>45352</v>
+      </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
       <c r="D95" s="39"/>
@@ -5078,7 +5152,9 @@
       <c r="K95" s="20"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="40"/>
+      <c r="A96" s="40">
+        <v>45383</v>
+      </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
       <c r="D96" s="39"/>
@@ -5094,7 +5170,9 @@
       <c r="K96" s="20"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="40"/>
+      <c r="A97" s="40">
+        <v>45413</v>
+      </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
       <c r="D97" s="39"/>
@@ -5110,7 +5188,9 @@
       <c r="K97" s="20"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="40"/>
+      <c r="A98" s="40">
+        <v>45444</v>
+      </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
       <c r="D98" s="39"/>
@@ -5126,7 +5206,9 @@
       <c r="K98" s="20"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="40"/>
+      <c r="A99" s="40">
+        <v>45474</v>
+      </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
       <c r="D99" s="39"/>
@@ -5142,7 +5224,9 @@
       <c r="K99" s="20"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="40"/>
+      <c r="A100" s="40">
+        <v>45505</v>
+      </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
       <c r="D100" s="39"/>
@@ -5158,7 +5242,9 @@
       <c r="K100" s="20"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="40"/>
+      <c r="A101" s="40">
+        <v>45536</v>
+      </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
       <c r="D101" s="39"/>
@@ -5174,7 +5260,9 @@
       <c r="K101" s="20"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="40"/>
+      <c r="A102" s="40">
+        <v>45566</v>
+      </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
       <c r="D102" s="39"/>
@@ -5862,20 +5950,180 @@
       <c r="K144" s="20"/>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A145" s="41"/>
-      <c r="B145" s="15"/>
-      <c r="C145" s="42"/>
-      <c r="D145" s="43"/>
+      <c r="A145" s="40"/>
+      <c r="B145" s="20"/>
+      <c r="C145" s="13"/>
+      <c r="D145" s="39"/>
       <c r="E145" s="9"/>
-      <c r="F145" s="15"/>
-      <c r="G145" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H145" s="43"/>
+      <c r="F145" s="20"/>
+      <c r="G145" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H145" s="39"/>
       <c r="I145" s="9"/>
-      <c r="J145" s="12"/>
-      <c r="K145" s="15"/>
+      <c r="J145" s="11"/>
+      <c r="K145" s="20"/>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146" s="40"/>
+      <c r="B146" s="20"/>
+      <c r="C146" s="13"/>
+      <c r="D146" s="39"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="20"/>
+      <c r="G146" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H146" s="39"/>
+      <c r="I146" s="9"/>
+      <c r="J146" s="11"/>
+      <c r="K146" s="20"/>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147" s="40"/>
+      <c r="B147" s="20"/>
+      <c r="C147" s="13"/>
+      <c r="D147" s="39"/>
+      <c r="E147" s="9"/>
+      <c r="F147" s="20"/>
+      <c r="G147" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H147" s="39"/>
+      <c r="I147" s="9"/>
+      <c r="J147" s="11"/>
+      <c r="K147" s="20"/>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148" s="40"/>
+      <c r="B148" s="20"/>
+      <c r="C148" s="13"/>
+      <c r="D148" s="39"/>
+      <c r="E148" s="9"/>
+      <c r="F148" s="20"/>
+      <c r="G148" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H148" s="39"/>
+      <c r="I148" s="9"/>
+      <c r="J148" s="11"/>
+      <c r="K148" s="20"/>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149" s="40"/>
+      <c r="B149" s="20"/>
+      <c r="C149" s="13"/>
+      <c r="D149" s="39"/>
+      <c r="E149" s="9"/>
+      <c r="F149" s="20"/>
+      <c r="G149" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H149" s="39"/>
+      <c r="I149" s="9"/>
+      <c r="J149" s="11"/>
+      <c r="K149" s="20"/>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150" s="40"/>
+      <c r="B150" s="20"/>
+      <c r="C150" s="13"/>
+      <c r="D150" s="39"/>
+      <c r="E150" s="9"/>
+      <c r="F150" s="20"/>
+      <c r="G150" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H150" s="39"/>
+      <c r="I150" s="9"/>
+      <c r="J150" s="11"/>
+      <c r="K150" s="20"/>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151" s="40"/>
+      <c r="B151" s="20"/>
+      <c r="C151" s="13"/>
+      <c r="D151" s="39"/>
+      <c r="E151" s="9"/>
+      <c r="F151" s="20"/>
+      <c r="G151" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H151" s="39"/>
+      <c r="I151" s="9"/>
+      <c r="J151" s="11"/>
+      <c r="K151" s="20"/>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A152" s="40"/>
+      <c r="B152" s="20"/>
+      <c r="C152" s="13"/>
+      <c r="D152" s="39"/>
+      <c r="E152" s="9"/>
+      <c r="F152" s="20"/>
+      <c r="G152" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H152" s="39"/>
+      <c r="I152" s="9"/>
+      <c r="J152" s="11"/>
+      <c r="K152" s="20"/>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A153" s="40"/>
+      <c r="B153" s="20"/>
+      <c r="C153" s="13"/>
+      <c r="D153" s="39"/>
+      <c r="E153" s="9"/>
+      <c r="F153" s="20"/>
+      <c r="G153" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H153" s="39"/>
+      <c r="I153" s="9"/>
+      <c r="J153" s="11"/>
+      <c r="K153" s="20"/>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A154" s="40"/>
+      <c r="B154" s="20"/>
+      <c r="C154" s="13"/>
+      <c r="D154" s="39"/>
+      <c r="E154" s="9"/>
+      <c r="F154" s="20"/>
+      <c r="G154" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H154" s="39"/>
+      <c r="I154" s="9"/>
+      <c r="J154" s="11"/>
+      <c r="K154" s="20"/>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A155" s="41"/>
+      <c r="B155" s="15"/>
+      <c r="C155" s="42"/>
+      <c r="D155" s="43"/>
+      <c r="E155" s="9"/>
+      <c r="F155" s="15"/>
+      <c r="G155" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H155" s="43"/>
+      <c r="I155" s="9"/>
+      <c r="J155" s="12"/>
+      <c r="K155" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5986,15 +6234,13 @@
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
-      <c r="E3">
-        <v>0</v>
-      </c>
+      <c r="E3"/>
       <c r="F3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G3" s="47">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>2.700000000000001E-2</v>
+        <v>3.1000000000000014E-2</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">

--- a/REGULAR/CEO/DOGELIO, RONNEL.xlsx
+++ b/REGULAR/CEO/DOGELIO, RONNEL.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="98">
   <si>
     <t>PERIOD</t>
   </si>
@@ -316,6 +316,18 @@
   </si>
   <si>
     <t>6/15,16/2023</t>
+  </si>
+  <si>
+    <t>UT(0-1-13)</t>
+  </si>
+  <si>
+    <t>UT(0-0-21)</t>
+  </si>
+  <si>
+    <t>UT(0-1-6)</t>
+  </si>
+  <si>
+    <t>UT(0-1-2)</t>
   </si>
 </sst>
 </file>
@@ -1184,7 +1196,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1227,7 +1239,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1291,7 +1303,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1351,7 +1363,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1417,7 +1429,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1480,7 +1492,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1578,7 +1590,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1637,7 +1649,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1702,7 +1714,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1745,7 +1757,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1820,7 +1832,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2006,7 +2018,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2072,7 +2084,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2130,7 +2142,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2196,7 +2208,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2252,7 +2264,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2327,7 +2339,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2370,7 +2382,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2436,7 +2448,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2492,7 +2504,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2590,7 +2602,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2653,7 +2665,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2719,7 +2731,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K155" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K159" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3097,12 +3109,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K155"/>
+  <dimension ref="A2:K159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A63" activePane="bottomLeft"/>
       <selection activeCell="G8" sqref="G8"/>
-      <selection pane="bottomLeft" activeCell="K75" sqref="K75"/>
+      <selection pane="bottomLeft" activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3259,7 +3271,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>27.770000000000003</v>
+        <v>26.289000000000009</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4556,40 +4568,38 @@
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="40">
-        <v>44958</v>
-      </c>
+      <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C69" s="13">
-        <v>1.25</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="C69" s="13"/>
       <c r="D69" s="39">
-        <v>2</v>
+        <v>0.129</v>
       </c>
       <c r="E69" s="9"/>
       <c r="F69" s="20"/>
-      <c r="G69" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G69" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H69" s="39"/>
       <c r="I69" s="9"/>
       <c r="J69" s="11"/>
-      <c r="K69" s="20" t="s">
-        <v>60</v>
-      </c>
+      <c r="K69" s="50"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
-        <v>44986</v>
-      </c>
-      <c r="B70" s="20"/>
+        <v>44958</v>
+      </c>
+      <c r="B70" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C70" s="13">
         <v>1.25</v>
       </c>
-      <c r="D70" s="39"/>
+      <c r="D70" s="39">
+        <v>2</v>
+      </c>
       <c r="E70" s="9"/>
       <c r="F70" s="20"/>
       <c r="G70" s="13">
@@ -4599,22 +4609,24 @@
       <c r="H70" s="39"/>
       <c r="I70" s="9"/>
       <c r="J70" s="11"/>
-      <c r="K70" s="20"/>
+      <c r="K70" s="20" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B71" s="20"/>
-      <c r="C71" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D71" s="39"/>
+      <c r="A71" s="40"/>
+      <c r="B71" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71" s="13"/>
+      <c r="D71" s="39">
+        <v>0.13700000000000001</v>
+      </c>
       <c r="E71" s="9"/>
       <c r="F71" s="20"/>
-      <c r="G71" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G71" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H71" s="39"/>
       <c r="I71" s="9"/>
@@ -4623,108 +4635,108 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
-        <v>45047</v>
+        <v>44986</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="C72" s="13">
         <v>1.25</v>
       </c>
-      <c r="D72" s="39"/>
+      <c r="D72" s="39">
+        <v>4.4000000000000004E-2</v>
+      </c>
       <c r="E72" s="9"/>
       <c r="F72" s="20"/>
       <c r="G72" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H72" s="39">
-        <v>1</v>
-      </c>
+      <c r="H72" s="39"/>
       <c r="I72" s="9"/>
       <c r="J72" s="11"/>
-      <c r="K72" s="50">
-        <v>45051</v>
-      </c>
+      <c r="K72" s="20"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
-        <v>45078</v>
+        <v>45017</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C73" s="13">
         <v>1.25</v>
       </c>
-      <c r="D73" s="39"/>
+      <c r="D73" s="39">
+        <v>1</v>
+      </c>
       <c r="E73" s="9"/>
       <c r="F73" s="20"/>
       <c r="G73" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H73" s="39">
-        <v>1</v>
-      </c>
+      <c r="H73" s="39"/>
       <c r="I73" s="9"/>
       <c r="J73" s="11"/>
       <c r="K73" s="50">
-        <v>45078</v>
+        <v>45021</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C74" s="13"/>
-      <c r="D74" s="39"/>
+      <c r="D74" s="39">
+        <v>1.9000000000000003E-2</v>
+      </c>
       <c r="E74" s="9"/>
       <c r="F74" s="20"/>
       <c r="G74" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H74" s="39">
-        <v>1</v>
-      </c>
+      <c r="H74" s="39"/>
       <c r="I74" s="9"/>
       <c r="J74" s="11"/>
-      <c r="K74" s="50">
-        <v>45082</v>
-      </c>
+      <c r="K74" s="50"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="40"/>
+      <c r="A75" s="40">
+        <v>45047</v>
+      </c>
       <c r="B75" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="C75" s="13"/>
-      <c r="D75" s="39">
-        <v>2</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C75" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D75" s="39"/>
       <c r="E75" s="9"/>
       <c r="F75" s="20"/>
-      <c r="G75" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H75" s="39"/>
+      <c r="G75" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H75" s="39">
+        <v>1</v>
+      </c>
       <c r="I75" s="9"/>
       <c r="J75" s="11"/>
-      <c r="K75" s="50" t="s">
-        <v>93</v>
+      <c r="K75" s="50">
+        <v>45051</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C76" s="13"/>
       <c r="D76" s="39">
-        <v>3.1000000000000014E-2</v>
+        <v>0.15200000000000002</v>
       </c>
       <c r="E76" s="9"/>
       <c r="F76" s="20"/>
@@ -4739,10 +4751,10 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C77" s="13">
         <v>1.25</v>
@@ -4755,44 +4767,44 @@
         <v>1.25</v>
       </c>
       <c r="H77" s="39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
-      <c r="K77" s="20" t="s">
-        <v>66</v>
+      <c r="K77" s="50">
+        <v>45078</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C78" s="13"/>
-      <c r="D78" s="39">
-        <v>1</v>
-      </c>
+      <c r="D78" s="39"/>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
       <c r="G78" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H78" s="39"/>
+      <c r="H78" s="39">
+        <v>1</v>
+      </c>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
       <c r="K78" s="50">
-        <v>45134</v>
+        <v>45082</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C79" s="13"/>
       <c r="D79" s="39">
-        <v>0.17100000000000001</v>
+        <v>2</v>
       </c>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
@@ -4803,40 +4815,36 @@
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
-      <c r="K79" s="50"/>
+      <c r="K79" s="50" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="40">
-        <v>45139</v>
-      </c>
+      <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C80" s="13">
-        <v>1.25</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="C80" s="13"/>
       <c r="D80" s="39">
-        <v>1</v>
+        <v>3.1000000000000014E-2</v>
       </c>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G80" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
-      <c r="K80" s="50">
-        <v>45142</v>
-      </c>
+      <c r="K80" s="50"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
-        <v>45170</v>
+        <v>45108</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C81" s="13">
         <v>1.25</v>
@@ -4849,12 +4857,12 @@
         <v>1.25</v>
       </c>
       <c r="H81" s="39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
-      <c r="K81" s="50">
-        <v>45195</v>
+      <c r="K81" s="20" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -4876,17 +4884,17 @@
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
       <c r="K82" s="50">
-        <v>45173</v>
+        <v>45134</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C83" s="13"/>
       <c r="D83" s="39">
-        <v>5.6000000000000015E-2</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
@@ -4901,16 +4909,16 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
-        <v>45200</v>
+        <v>45139</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C84" s="13">
         <v>1.25</v>
       </c>
       <c r="D84" s="39">
-        <v>7.1000000000000008E-2</v>
+        <v>1</v>
       </c>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
@@ -4921,11 +4929,13 @@
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
-      <c r="K84" s="20"/>
+      <c r="K84" s="50">
+        <v>45142</v>
+      </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
-        <v>45231</v>
+        <v>45170</v>
       </c>
       <c r="B85" s="20" t="s">
         <v>62</v>
@@ -4946,39 +4956,39 @@
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
       <c r="K85" s="50">
-        <v>45233</v>
+        <v>45195</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C86" s="13"/>
-      <c r="D86" s="39"/>
+      <c r="D86" s="39">
+        <v>1</v>
+      </c>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
       <c r="G86" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H86" s="39">
-        <v>1</v>
-      </c>
+      <c r="H86" s="39"/>
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
       <c r="K86" s="50">
-        <v>45238</v>
+        <v>45173</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C87" s="13"/>
       <c r="D87" s="39">
-        <v>0.11700000000000001</v>
+        <v>5.6000000000000015E-2</v>
       </c>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
@@ -4993,15 +5003,17 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
-        <v>45261</v>
+        <v>45200</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C88" s="13">
         <v>1.25</v>
       </c>
-      <c r="D88" s="39"/>
+      <c r="D88" s="39">
+        <v>7.1000000000000008E-2</v>
+      </c>
       <c r="E88" s="9"/>
       <c r="F88" s="20"/>
       <c r="G88" s="13">
@@ -5011,62 +5023,64 @@
       <c r="H88" s="39"/>
       <c r="I88" s="9"/>
       <c r="J88" s="11"/>
-      <c r="K88" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="K88" s="20"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="40"/>
+      <c r="A89" s="40">
+        <v>45231</v>
+      </c>
       <c r="B89" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C89" s="13"/>
-      <c r="D89" s="39">
-        <v>2</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C89" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D89" s="39"/>
       <c r="E89" s="9"/>
       <c r="F89" s="20"/>
-      <c r="G89" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H89" s="39"/>
+      <c r="G89" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H89" s="39">
+        <v>1</v>
+      </c>
       <c r="I89" s="9"/>
       <c r="J89" s="11"/>
-      <c r="K89" s="20" t="s">
-        <v>83</v>
+      <c r="K89" s="50">
+        <v>45233</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C90" s="13"/>
-      <c r="D90" s="39">
-        <v>3</v>
-      </c>
+      <c r="D90" s="39"/>
       <c r="E90" s="9"/>
       <c r="F90" s="20"/>
       <c r="G90" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H90" s="39"/>
+      <c r="H90" s="39">
+        <v>1</v>
+      </c>
       <c r="I90" s="9"/>
       <c r="J90" s="11"/>
-      <c r="K90" s="20" t="s">
-        <v>85</v>
+      <c r="K90" s="50">
+        <v>45238</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C91" s="13"/>
       <c r="D91" s="39">
-        <v>0.10400000000000001</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="E91" s="9"/>
       <c r="F91" s="20"/>
@@ -5077,33 +5091,41 @@
       <c r="H91" s="39"/>
       <c r="I91" s="9"/>
       <c r="J91" s="11"/>
-      <c r="K91" s="20"/>
+      <c r="K91" s="50"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="48" t="s">
-        <v>84</v>
-      </c>
-      <c r="B92" s="20"/>
-      <c r="C92" s="13"/>
+      <c r="A92" s="40">
+        <v>45261</v>
+      </c>
+      <c r="B92" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C92" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D92" s="39"/>
       <c r="E92" s="9"/>
       <c r="F92" s="20"/>
-      <c r="G92" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G92" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H92" s="39"/>
       <c r="I92" s="9"/>
       <c r="J92" s="11"/>
-      <c r="K92" s="20"/>
+      <c r="K92" s="20" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B93" s="20"/>
+      <c r="A93" s="40"/>
+      <c r="B93" s="20" t="s">
+        <v>82</v>
+      </c>
       <c r="C93" s="13"/>
-      <c r="D93" s="39"/>
+      <c r="D93" s="39">
+        <v>2</v>
+      </c>
       <c r="E93" s="9"/>
       <c r="F93" s="20"/>
       <c r="G93" s="13" t="str">
@@ -5113,15 +5135,19 @@
       <c r="H93" s="39"/>
       <c r="I93" s="9"/>
       <c r="J93" s="11"/>
-      <c r="K93" s="20"/>
+      <c r="K93" s="20" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B94" s="20"/>
+      <c r="A94" s="40"/>
+      <c r="B94" s="20" t="s">
+        <v>67</v>
+      </c>
       <c r="C94" s="13"/>
-      <c r="D94" s="39"/>
+      <c r="D94" s="39">
+        <v>3</v>
+      </c>
       <c r="E94" s="9"/>
       <c r="F94" s="20"/>
       <c r="G94" s="13" t="str">
@@ -5131,15 +5157,19 @@
       <c r="H94" s="39"/>
       <c r="I94" s="9"/>
       <c r="J94" s="11"/>
-      <c r="K94" s="20"/>
+      <c r="K94" s="20" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B95" s="20"/>
+      <c r="A95" s="40"/>
+      <c r="B95" s="20" t="s">
+        <v>86</v>
+      </c>
       <c r="C95" s="13"/>
-      <c r="D95" s="39"/>
+      <c r="D95" s="39">
+        <v>0.10400000000000001</v>
+      </c>
       <c r="E95" s="9"/>
       <c r="F95" s="20"/>
       <c r="G95" s="13" t="str">
@@ -5152,8 +5182,8 @@
       <c r="K95" s="20"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="40">
-        <v>45383</v>
+      <c r="A96" s="48" t="s">
+        <v>84</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -5171,7 +5201,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
-        <v>45413</v>
+        <v>45292</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -5189,7 +5219,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
-        <v>45444</v>
+        <v>45323</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5207,7 +5237,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
-        <v>45474</v>
+        <v>45352</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5225,7 +5255,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
-        <v>45505</v>
+        <v>45383</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5243,7 +5273,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
-        <v>45536</v>
+        <v>45413</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5261,7 +5291,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
-        <v>45566</v>
+        <v>45444</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5278,7 +5308,9 @@
       <c r="K102" s="20"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="40"/>
+      <c r="A103" s="40">
+        <v>45474</v>
+      </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
       <c r="D103" s="39"/>
@@ -5294,7 +5326,9 @@
       <c r="K103" s="20"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="40"/>
+      <c r="A104" s="40">
+        <v>45505</v>
+      </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
       <c r="D104" s="39"/>
@@ -5310,7 +5344,9 @@
       <c r="K104" s="20"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="40"/>
+      <c r="A105" s="40">
+        <v>45536</v>
+      </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
       <c r="D105" s="39"/>
@@ -5326,7 +5362,9 @@
       <c r="K105" s="20"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="40"/>
+      <c r="A106" s="40">
+        <v>45566</v>
+      </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
       <c r="D106" s="39"/>
@@ -6110,20 +6148,84 @@
       <c r="K154" s="20"/>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A155" s="41"/>
-      <c r="B155" s="15"/>
-      <c r="C155" s="42"/>
-      <c r="D155" s="43"/>
+      <c r="A155" s="40"/>
+      <c r="B155" s="20"/>
+      <c r="C155" s="13"/>
+      <c r="D155" s="39"/>
       <c r="E155" s="9"/>
-      <c r="F155" s="15"/>
-      <c r="G155" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H155" s="43"/>
+      <c r="F155" s="20"/>
+      <c r="G155" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H155" s="39"/>
       <c r="I155" s="9"/>
-      <c r="J155" s="12"/>
-      <c r="K155" s="15"/>
+      <c r="J155" s="11"/>
+      <c r="K155" s="20"/>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A156" s="40"/>
+      <c r="B156" s="20"/>
+      <c r="C156" s="13"/>
+      <c r="D156" s="39"/>
+      <c r="E156" s="9"/>
+      <c r="F156" s="20"/>
+      <c r="G156" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H156" s="39"/>
+      <c r="I156" s="9"/>
+      <c r="J156" s="11"/>
+      <c r="K156" s="20"/>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A157" s="40"/>
+      <c r="B157" s="20"/>
+      <c r="C157" s="13"/>
+      <c r="D157" s="39"/>
+      <c r="E157" s="9"/>
+      <c r="F157" s="20"/>
+      <c r="G157" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H157" s="39"/>
+      <c r="I157" s="9"/>
+      <c r="J157" s="11"/>
+      <c r="K157" s="20"/>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A158" s="40"/>
+      <c r="B158" s="20"/>
+      <c r="C158" s="13"/>
+      <c r="D158" s="39"/>
+      <c r="E158" s="9"/>
+      <c r="F158" s="20"/>
+      <c r="G158" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H158" s="39"/>
+      <c r="I158" s="9"/>
+      <c r="J158" s="11"/>
+      <c r="K158" s="20"/>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A159" s="41"/>
+      <c r="B159" s="15"/>
+      <c r="C159" s="42"/>
+      <c r="D159" s="43"/>
+      <c r="E159" s="9"/>
+      <c r="F159" s="15"/>
+      <c r="G159" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H159" s="43"/>
+      <c r="I159" s="9"/>
+      <c r="J159" s="12"/>
+      <c r="K159" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -6234,13 +6336,15 @@
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
-      <c r="E3"/>
+      <c r="E3">
+        <v>1</v>
+      </c>
       <c r="F3">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G3" s="47">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>3.1000000000000014E-2</v>
+        <v>0.129</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">
